--- a/biology/Médecine/Louis_Bonnefous/Louis_Bonnefous.xlsx
+++ b/biology/Médecine/Louis_Bonnefous/Louis_Bonnefous.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Louis-Marie-François Bonnefous (7 septembre 1859, Auriac - 13 juin 1942, Rodez), est un médecin et homme politique français.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Chirurgien et conseiller municipal de Rodez, il fut député de l'Aveyron de 1928 à 1936. Il fut vice-président de la Commission de l'hygiène.
 Il fut président de la Société des médecins et de la Fédération des syndicats médicaux de l'Aveyron, ainsi que du Comité de la Croix rouge à Rodez et du comité antituberculeux.
@@ -545,7 +559,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>« Louis Bonnefous », dans le Dictionnaire des parlementaires français (1889-1940), sous la direction de Jean Jolly, PUF, 1960 [détail de l’édition]</t>
         </is>
